--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,15 +82,15 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
@@ -106,33 +106,33 @@
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,21 +175,21 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>6 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,46 +82,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
@@ -130,9 +133,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
+    <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,30 +166,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
-    <t>15 ml</t>
+    <t>6's</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,54 +82,54 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -211,10 +211,10 @@
     <t>6 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,57 +82,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,30 +166,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,57 +82,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol TR 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,36 +166,36 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -94,45 +94,45 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
+    <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,21 +166,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>60 's</t>
+  </si>
+  <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>6 's</t>
+    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,27 +82,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,48 +82,48 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,30 +166,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>6's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,46 +82,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 100mg Capsule</t>
@@ -130,9 +133,6 @@
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,21 +166,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,48 +82,48 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,30 +166,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -94,34 +94,37 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -130,9 +133,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,36 +166,36 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,57 +82,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,21 +166,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,27 +82,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -115,13 +115,16 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
@@ -130,9 +133,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -205,10 +205,10 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
   <si>
     <t>6 's</t>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,27 +82,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -118,21 +118,21 @@
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,48 +82,48 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
+    <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,30 +166,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
-    <t>30ml</t>
+    <t>15 ml</t>
   </si>
   <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,46 +82,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -130,9 +133,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,27 +175,27 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -82,54 +82,54 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,21 +175,21 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Estimated Sales</t>
   </si>
   <si>
+    <t>Biltin</t>
+  </si>
+  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -79,30 +82,33 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Biltin 20mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -115,15 +121,15 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -157,12 +163,12 @@
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>60 ml</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
@@ -184,10 +190,10 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
-  </si>
-  <si>
-    <t>5 's</t>
   </si>
   <si>
     <t>60 's</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -612,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -626,7 +632,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -635,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -652,16 +658,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -675,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -695,7 +701,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -704,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -718,7 +724,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -727,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -744,16 +750,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -767,16 +773,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -787,7 +793,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -796,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -810,7 +816,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -819,10 +825,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -836,16 +842,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -856,7 +862,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -865,10 +871,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -879,7 +885,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -888,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -905,16 +911,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -928,16 +934,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -957,10 +963,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -974,16 +980,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -997,16 +1003,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1017,7 +1023,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1026,10 +1032,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1040,7 +1046,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1049,10 +1055,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1063,7 +1069,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1072,10 +1078,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1086,7 +1092,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1095,10 +1101,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1109,7 +1115,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1118,10 +1124,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1135,16 +1141,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1158,16 +1164,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1181,21 +1187,44 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0</v>
       </c>
     </row>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Estimated Sales</t>
   </si>
   <si>
-    <t>Biltin</t>
-  </si>
-  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Zithrox</t>
   </si>
   <si>
-    <t>Biltin 20mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
@@ -100,15 +94,15 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -124,12 +118,12 @@
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -151,33 +145,33 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
+    <t>60 ml</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
-    <t>60 ml</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -211,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -578,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +603,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -618,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -632,7 +626,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -641,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -658,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -681,16 +675,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -701,7 +695,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -710,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -724,7 +718,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -733,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -750,16 +744,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -773,16 +767,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -793,7 +787,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -802,10 +796,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -816,7 +810,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -825,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -842,16 +836,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -862,7 +856,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -871,10 +865,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -885,7 +879,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -894,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -911,16 +905,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -934,16 +928,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -954,7 +948,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -963,10 +957,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -980,16 +974,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1003,16 +997,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1023,7 +1017,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1032,10 +1026,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1046,7 +1040,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1055,10 +1049,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1069,7 +1063,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1078,10 +1072,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1092,7 +1086,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1101,10 +1095,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1115,7 +1109,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1124,10 +1118,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1141,16 +1135,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1164,16 +1158,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1187,44 +1181,21 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
         <v>0</v>
       </c>
     </row>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -94,24 +94,24 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
@@ -124,15 +124,15 @@
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -166,21 +166,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -88,54 +88,54 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -214,10 +214,10 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
@@ -624,10 +624,10 @@
         <v>49</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9470</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3194515</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -88,12 +88,12 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
@@ -112,33 +112,33 @@
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -181,25 +181,25 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
-  </si>
-  <si>
-    <t>50 's</t>
   </si>
   <si>
     <t>40 's</t>
@@ -624,10 +624,10 @@
         <v>49</v>
       </c>
       <c r="F2">
-        <v>9470</v>
+        <v>15672</v>
       </c>
       <c r="G2">
-        <v>3194515</v>
+        <v>5286635</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -920,7 +920,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,190 +37,124 @@
     <t>Estimated Sales</t>
   </si>
   <si>
-    <t>Biltin</t>
-  </si>
-  <si>
-    <t>Desodin</t>
-  </si>
-  <si>
-    <t>Dinafex</t>
-  </si>
-  <si>
-    <t>Dorenta</t>
-  </si>
-  <si>
-    <t>Etorix</t>
-  </si>
-  <si>
-    <t>Fenobac</t>
-  </si>
-  <si>
-    <t>Flucloxin</t>
-  </si>
-  <si>
-    <t>Geminox</t>
-  </si>
-  <si>
-    <t>Ketonic</t>
-  </si>
-  <si>
-    <t>Kynol</t>
-  </si>
-  <si>
-    <t>Naprox</t>
-  </si>
-  <si>
-    <t>Oradin</t>
-  </si>
-  <si>
-    <t>Osticare</t>
-  </si>
-  <si>
-    <t>Rupaday</t>
-  </si>
-  <si>
-    <t>Zithrox</t>
-  </si>
-  <si>
-    <t>Biltin 20mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Desodin 60ml Syrup</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dorenta 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Fenobac 100ml Syrup</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
-    <t>Geminox 320mg Tablet - 8's</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Oradin Plus Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Osticare Tablet 24's</t>
-  </si>
-  <si>
-    <t>Rupaday Oral Solution 60ml</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>30's</t>
-  </si>
-  <si>
-    <t>60 ml</t>
-  </si>
-  <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>100ml</t>
-  </si>
-  <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>36 's</t>
-  </si>
-  <si>
-    <t>8 's</t>
-  </si>
-  <si>
-    <t>4's</t>
-  </si>
-  <si>
-    <t>5 's</t>
-  </si>
-  <si>
-    <t>50 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>40 's</t>
-  </si>
-  <si>
-    <t>24's</t>
+    <t>Alphagan</t>
+  </si>
+  <si>
+    <t>Altadin</t>
+  </si>
+  <si>
+    <t>Betagan</t>
+  </si>
+  <si>
+    <t>Bimatol</t>
+  </si>
+  <si>
+    <t>Binzotim</t>
+  </si>
+  <si>
+    <t>Combigan</t>
+  </si>
+  <si>
+    <t>Dextor OPT</t>
+  </si>
+  <si>
+    <t>Fluflam</t>
+  </si>
+  <si>
+    <t>Lotrel</t>
+  </si>
+  <si>
+    <t>Lumigan</t>
+  </si>
+  <si>
+    <t>Poly Pred</t>
+  </si>
+  <si>
+    <t>Pred OPT</t>
+  </si>
+  <si>
+    <t>Refresh Liquigel</t>
+  </si>
+  <si>
+    <t>Refresh Tears</t>
+  </si>
+  <si>
+    <t>Relestat</t>
+  </si>
+  <si>
+    <t>Zolopt</t>
+  </si>
+  <si>
+    <t>Zymar</t>
+  </si>
+  <si>
+    <t>Alphagan P 5 ml</t>
+  </si>
+  <si>
+    <t>Altadin 0.25% Ophthalmic Solution</t>
+  </si>
+  <si>
+    <t>Betagan 0.5% 5 ml</t>
+  </si>
+  <si>
+    <t>Bimatol 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
+    <t>Binzotim Ophthalmic Suspension 5ml</t>
+  </si>
+  <si>
+    <t>Combigan Ophthalmic Susp 5ml</t>
+  </si>
+  <si>
+    <t>Dextor T Ophthalmic Suspension, 5ml</t>
+  </si>
+  <si>
+    <t>Fluflam 0.1% Opthalmic Suspension</t>
+  </si>
+  <si>
+    <t>Lotrel 0.5% Opthalmic Suspension</t>
+  </si>
+  <si>
+    <t>Lumigan 0.03% 3 ml</t>
+  </si>
+  <si>
+    <t>Poly Pred 5ml</t>
+  </si>
+  <si>
+    <t>PRED 5ml Ophthalmic Suspension</t>
+  </si>
+  <si>
+    <t>Refresh Liquigel 15ml</t>
+  </si>
+  <si>
+    <t>Refresh Tears 15ml</t>
+  </si>
+  <si>
+    <t>Relestat 5 ml</t>
+  </si>
+  <si>
+    <t>Zolopt Ophthalmic Suspension 5ml</t>
+  </si>
+  <si>
+    <t>Zymar 5ml</t>
+  </si>
+  <si>
+    <t>5 ml</t>
   </si>
   <si>
     <t>1's</t>
   </si>
   <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>6's</t>
+    <t>5 ml.</t>
+  </si>
+  <si>
+    <t>5ml</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>15ml</t>
   </si>
 </sst>
 </file>
@@ -578,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,21 +552,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>15672</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>5286635</v>
+        <v>20390</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -641,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -655,7 +589,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -664,10 +598,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -681,16 +615,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -701,19 +635,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -724,42 +658,42 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>54941</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -770,19 +704,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -793,19 +727,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -816,42 +750,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>112004</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -862,19 +796,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -885,19 +819,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -908,65 +842,65 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2603</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>614880</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -977,254 +911,24 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
         <v>0</v>
       </c>
     </row>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -558,10 +558,10 @@
         <v>41</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>20390</v>
+        <v>22481</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -673,10 +673,10 @@
         <v>44</v>
       </c>
       <c r="F7">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G7">
-        <v>54941</v>
+        <v>65593</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -765,10 +765,10 @@
         <v>45</v>
       </c>
       <c r="F11">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11">
-        <v>112004</v>
+        <v>128445</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -857,10 +857,10 @@
         <v>46</v>
       </c>
       <c r="F15">
-        <v>2603</v>
+        <v>3213</v>
       </c>
       <c r="G15">
-        <v>614880</v>
+        <v>758974</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -880,10 +880,10 @@
         <v>41</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>796</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="17" spans="1:7">

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,124 +37,406 @@
     <t>Estimated Sales</t>
   </si>
   <si>
-    <t>Alphagan</t>
-  </si>
-  <si>
-    <t>Altadin</t>
-  </si>
-  <si>
-    <t>Betagan</t>
-  </si>
-  <si>
-    <t>Bimatol</t>
-  </si>
-  <si>
-    <t>Binzotim</t>
-  </si>
-  <si>
-    <t>Combigan</t>
-  </si>
-  <si>
-    <t>Dextor OPT</t>
-  </si>
-  <si>
-    <t>Fluflam</t>
-  </si>
-  <si>
-    <t>Lotrel</t>
-  </si>
-  <si>
-    <t>Lumigan</t>
-  </si>
-  <si>
-    <t>Poly Pred</t>
-  </si>
-  <si>
-    <t>Pred OPT</t>
-  </si>
-  <si>
-    <t>Refresh Liquigel</t>
-  </si>
-  <si>
-    <t>Refresh Tears</t>
-  </si>
-  <si>
-    <t>Relestat</t>
-  </si>
-  <si>
-    <t>Zolopt</t>
-  </si>
-  <si>
-    <t>Zymar</t>
-  </si>
-  <si>
-    <t>Alphagan P 5 ml</t>
-  </si>
-  <si>
-    <t>Altadin 0.25% Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Betagan 0.5% 5 ml</t>
-  </si>
-  <si>
-    <t>Bimatol 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Binzotim Ophthalmic Suspension 5ml</t>
-  </si>
-  <si>
-    <t>Combigan Ophthalmic Susp 5ml</t>
-  </si>
-  <si>
-    <t>Dextor T Ophthalmic Suspension, 5ml</t>
-  </si>
-  <si>
-    <t>Fluflam 0.1% Opthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Lotrel 0.5% Opthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Lumigan 0.03% 3 ml</t>
-  </si>
-  <si>
-    <t>Poly Pred 5ml</t>
-  </si>
-  <si>
-    <t>PRED 5ml Ophthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Refresh Liquigel 15ml</t>
-  </si>
-  <si>
-    <t>Refresh Tears 15ml</t>
-  </si>
-  <si>
-    <t>Relestat 5 ml</t>
-  </si>
-  <si>
-    <t>Zolopt Ophthalmic Suspension 5ml</t>
-  </si>
-  <si>
-    <t>Zymar 5ml</t>
-  </si>
-  <si>
-    <t>5 ml</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>5 ml.</t>
-  </si>
-  <si>
-    <t>5ml</t>
-  </si>
-  <si>
-    <t>3 ml</t>
-  </si>
-  <si>
-    <t>15ml</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Anapril</t>
+  </si>
+  <si>
+    <t>Cardimet</t>
+  </si>
+  <si>
+    <t>Cardobis</t>
+  </si>
+  <si>
+    <t>Cardon</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Dezide</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>Dietil</t>
+  </si>
+  <si>
+    <t>Edenil</t>
+  </si>
+  <si>
+    <t>Emazid</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Glunor</t>
+  </si>
+  <si>
+    <t>GTN</t>
+  </si>
+  <si>
+    <t>Irbes</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Noclog</t>
+  </si>
+  <si>
+    <t>Noficon</t>
+  </si>
+  <si>
+    <t>Olmesta</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Rivarox</t>
+  </si>
+  <si>
+    <t>Sidopin</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Topress</t>
+  </si>
+  <si>
+    <t>Vigamet</t>
+  </si>
+  <si>
+    <t>Vigatin</t>
+  </si>
+  <si>
+    <t>Virenta</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Anapril 5mg Tablet</t>
+  </si>
+  <si>
+    <t>Anapril 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Cardimet 35mg MR Tablet</t>
+  </si>
+  <si>
+    <t>Cardobis Plus 2.5/6.25mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis M 2.5/5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis Plus 5/6.25mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis 2.5mg FC Tablet 50's</t>
+  </si>
+  <si>
+    <t>Cardobis 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoplus 50mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardon 50mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Cardon 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Cardoplus 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Creston 5mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Creston 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Dezide Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 3mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Dialon 1mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 2mg Tablet</t>
+  </si>
+  <si>
+    <t>Dietil 120mg Capsule</t>
+  </si>
+  <si>
+    <t>Edenil 20mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Edenil 40mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Edenil 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Edenil 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Emazid 25mg FC Tablet 10's</t>
+  </si>
+  <si>
+    <t>Emazid 10mg FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Emazid M FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Glikazid 30 MR Tablet 30's</t>
+  </si>
+  <si>
+    <t>Glikazid 60mg MR Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Glunor XR Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 850mg Tablet</t>
+  </si>
+  <si>
+    <t>GTN 2.6mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 150mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/1000</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/850</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Noclog Plus 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Noclog Plus 75mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Noclog Plus Tablet 30's</t>
+  </si>
+  <si>
+    <t>Noficon 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Olmesta 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Olmesta M Tablet 30's</t>
+  </si>
+  <si>
+    <t>Olmesta 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Olmesta Plus Tablet</t>
+  </si>
+  <si>
+    <t>Olmesta 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Rivarox 10mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Rivarox 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Rivarox 15mg FC Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Rivarox 2.5mg Tablet</t>
+  </si>
+  <si>
+    <t>Sidoplus 50mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Sidopin 5mg Tablet</t>
+  </si>
+  <si>
+    <t>Sidoplus 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Sidoplus 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/1000 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/500 Tablet 20's</t>
+  </si>
+  <si>
+    <t>Topress 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Vigamet 50/500 Tablet 20'S</t>
+  </si>
+  <si>
+    <t>Vigamet 50/850 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Vigatin 50mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Virenta 0.5mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>100 's</t>
+  </si>
+  <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>40 's</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>50 's</t>
+  </si>
+  <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
+    <t>18's</t>
   </si>
 </sst>
 </file>
@@ -512,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +825,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -552,33 +834,33 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>5523</v>
       </c>
       <c r="G2">
-        <v>20390</v>
+        <v>1242067</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -589,203 +871,203 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>59764</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>57279</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2736</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>369168</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>98</v>
+        <v>1173</v>
       </c>
       <c r="G7">
-        <v>54941</v>
+        <v>158272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>7895</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1775506</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3310</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>446618</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>249627</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F11">
-        <v>109</v>
+        <v>10786</v>
       </c>
       <c r="G11">
-        <v>112004</v>
+        <v>2425663</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -796,19 +1078,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -819,88 +1101,88 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4425</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1061469</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F15">
-        <v>2603</v>
+        <v>1382</v>
       </c>
       <c r="G15">
-        <v>614880</v>
+        <v>139858</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -911,25 +1193,1681 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23">
+        <v>2904</v>
+      </c>
+      <c r="G23">
+        <v>653080</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24">
+        <v>3846</v>
+      </c>
+      <c r="G24">
+        <v>864926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <v>2223</v>
+      </c>
+      <c r="G25">
+        <v>166636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26">
+        <v>323</v>
+      </c>
+      <c r="G26">
+        <v>48427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27">
+        <v>667</v>
+      </c>
+      <c r="G27">
+        <v>112502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29">
+        <v>1177</v>
+      </c>
+      <c r="G29">
+        <v>211754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30">
+        <v>241</v>
+      </c>
+      <c r="G30">
+        <v>72263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31">
+        <v>2374</v>
+      </c>
+      <c r="G31">
+        <v>711843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32">
+        <v>912</v>
+      </c>
+      <c r="G32">
+        <v>341835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33">
+        <v>145</v>
+      </c>
+      <c r="G33">
+        <v>32609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35">
+        <v>3003</v>
+      </c>
+      <c r="G35">
+        <v>900449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36">
+        <v>7512</v>
+      </c>
+      <c r="G36">
+        <v>2815572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37">
+        <v>8014</v>
+      </c>
+      <c r="G37">
+        <v>1802268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38">
+        <v>18125</v>
+      </c>
+      <c r="G38">
+        <v>2717300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39">
+        <v>1069</v>
+      </c>
+      <c r="G39">
+        <v>120198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40">
+        <v>2466</v>
+      </c>
+      <c r="G40">
+        <v>369727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42">
+        <v>453</v>
+      </c>
+      <c r="G42">
+        <v>101875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43">
+        <v>3253</v>
+      </c>
+      <c r="G43">
+        <v>487722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44">
+        <v>662</v>
+      </c>
+      <c r="G44">
+        <v>148877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
         <v>44</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45">
+        <v>19303</v>
+      </c>
+      <c r="G45">
+        <v>3617575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46">
+        <v>263</v>
+      </c>
+      <c r="G46">
+        <v>53231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47">
+        <v>69</v>
+      </c>
+      <c r="G47">
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50">
+        <v>1491</v>
+      </c>
+      <c r="G50">
+        <v>321891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51">
+        <v>6490</v>
+      </c>
+      <c r="G51">
+        <v>1226025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52">
+        <v>8067</v>
+      </c>
+      <c r="G52">
+        <v>3265521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53">
+        <v>18264</v>
+      </c>
+      <c r="G53">
+        <v>4928905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56">
+        <v>12581</v>
+      </c>
+      <c r="G56">
+        <v>4715610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57">
+        <v>3328</v>
+      </c>
+      <c r="G57">
+        <v>1347174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62">
+        <v>9429</v>
+      </c>
+      <c r="G62">
+        <v>3392742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64">
+        <v>6237</v>
+      </c>
+      <c r="G64">
+        <v>2244197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67">
+        <v>171</v>
+      </c>
+      <c r="G67">
+        <v>35892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68">
+        <v>1339</v>
+      </c>
+      <c r="G68">
+        <v>301127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69">
+        <v>6508</v>
+      </c>
+      <c r="G69">
+        <v>1170854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70">
+        <v>6043</v>
+      </c>
+      <c r="G70">
+        <v>1087196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71">
+        <v>977</v>
+      </c>
+      <c r="G71">
+        <v>175772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72">
+        <v>708</v>
+      </c>
+      <c r="G72">
+        <v>79607</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74">
+        <v>22748</v>
+      </c>
+      <c r="G74">
+        <v>8526177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75">
+        <v>1091</v>
+      </c>
+      <c r="G75">
+        <v>736054</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76">
+        <v>758</v>
+      </c>
+      <c r="G76">
+        <v>397752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77">
+        <v>2950</v>
+      </c>
+      <c r="G77">
+        <v>530734</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78">
+        <v>5415</v>
+      </c>
+      <c r="G78">
+        <v>1217779</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79">
+        <v>1113</v>
+      </c>
+      <c r="G79">
+        <v>208587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80">
+        <v>924</v>
+      </c>
+      <c r="G80">
+        <v>145456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84">
+        <v>204</v>
+      </c>
+      <c r="G84">
+        <v>41289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85">
+        <v>1576</v>
+      </c>
+      <c r="G85">
+        <v>330802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86">
+        <v>176</v>
+      </c>
+      <c r="G86">
+        <v>26387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87">
+        <v>3820</v>
+      </c>
+      <c r="G87">
+        <v>1145427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88">
+        <v>1828</v>
+      </c>
+      <c r="G88">
+        <v>542641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89">
+        <v>488</v>
+      </c>
+      <c r="G89">
+        <v>146326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90">
+        <v>548</v>
+      </c>
+      <c r="G90">
+        <v>197181</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,406 +37,388 @@
     <t>Estimated Sales</t>
   </si>
   <si>
-    <t>Aldorin</t>
-  </si>
-  <si>
-    <t>Anapril</t>
-  </si>
-  <si>
-    <t>Cardimet</t>
-  </si>
-  <si>
-    <t>Cardobis</t>
-  </si>
-  <si>
-    <t>Cardon</t>
-  </si>
-  <si>
-    <t>Cardoneb</t>
-  </si>
-  <si>
-    <t>Cardovan</t>
-  </si>
-  <si>
-    <t>Creston</t>
-  </si>
-  <si>
-    <t>Dezide</t>
-  </si>
-  <si>
-    <t>Dialon</t>
-  </si>
-  <si>
-    <t>Dietil</t>
-  </si>
-  <si>
-    <t>Edenil</t>
-  </si>
-  <si>
-    <t>Emazid</t>
-  </si>
-  <si>
-    <t>GLIKAZID</t>
-  </si>
-  <si>
-    <t>Glunor</t>
-  </si>
-  <si>
-    <t>GTN</t>
-  </si>
-  <si>
-    <t>Irbes</t>
-  </si>
-  <si>
-    <t>Ligazid</t>
-  </si>
-  <si>
-    <t>Lipicon</t>
-  </si>
-  <si>
-    <t>Noclog</t>
-  </si>
-  <si>
-    <t>Noficon</t>
-  </si>
-  <si>
-    <t>Olmesta</t>
-  </si>
-  <si>
-    <t>Pivasta</t>
-  </si>
-  <si>
-    <t>Rivarox</t>
-  </si>
-  <si>
-    <t>Sidopin</t>
-  </si>
-  <si>
-    <t>Sitazid</t>
-  </si>
-  <si>
-    <t>Topress</t>
-  </si>
-  <si>
-    <t>Vigamet</t>
-  </si>
-  <si>
-    <t>Vigatin</t>
-  </si>
-  <si>
-    <t>Virenta</t>
-  </si>
-  <si>
-    <t>Aldorin 50mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Aldorin 50mg Tablet - 24's</t>
-  </si>
-  <si>
-    <t>Anapril 5mg Tablet</t>
-  </si>
-  <si>
-    <t>Anapril 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Cardimet 35mg MR Tablet</t>
-  </si>
-  <si>
-    <t>Cardobis Plus 2.5/6.25mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis 5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis M 2.5/5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis Plus 5/6.25mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis 2.5mg FC Tablet 50's</t>
-  </si>
-  <si>
-    <t>Cardobis 2.5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardoplus 50mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardon 50mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Cardon 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Cardoplus 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Cardoneb 5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardoneb 2.5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan 160mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan 80mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
-  </si>
-  <si>
-    <t>Creston 5mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Creston 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Dezide Tablet</t>
-  </si>
-  <si>
-    <t>Dialon 3mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Dialon 1mg Tablet</t>
-  </si>
-  <si>
-    <t>Dialon 4mg Tablet</t>
-  </si>
-  <si>
-    <t>Dialon 2mg Tablet</t>
-  </si>
-  <si>
-    <t>Dietil 120mg Capsule</t>
-  </si>
-  <si>
-    <t>Edenil 20mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Edenil 40mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Edenil 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Edenil 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Emazid 25mg FC Tablet 10's</t>
-  </si>
-  <si>
-    <t>Emazid 10mg FC Tablet 20's</t>
-  </si>
-  <si>
-    <t>Emazid M FC Tablet 20's</t>
-  </si>
-  <si>
-    <t>Glikazid 80mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Glikazid 30 MR Tablet 30's</t>
-  </si>
-  <si>
-    <t>Glikazid 60mg MR Tablet 20's</t>
-  </si>
-  <si>
-    <t>Glikazid 80mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Glunor XR Tablet</t>
-  </si>
-  <si>
-    <t>Glunor 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Glunor 850mg Tablet</t>
-  </si>
-  <si>
-    <t>GTN 2.6mg Tablet</t>
-  </si>
-  <si>
-    <t>Irbes 150mg Tablet</t>
-  </si>
-  <si>
-    <t>Irbes 75mg Tablet</t>
-  </si>
-  <si>
-    <t>Ligazid 5mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>Ligazid 5mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/1000</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/850</t>
-  </si>
-  <si>
-    <t>Ligazid 5mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/500mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/500</t>
-  </si>
-  <si>
-    <t>Lipicon 40mg Tablet - 10's</t>
-  </si>
-  <si>
-    <t>Lipicon 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Lipicon 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Lipicon 10mg Tablet Container 30's</t>
-  </si>
-  <si>
-    <t>Lipicon 20mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Lipicon 10mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Noclog 75mg Tablet</t>
-  </si>
-  <si>
-    <t>Noclog 75mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Noclog Plus 75mg Tablet</t>
-  </si>
-  <si>
-    <t>Noclog Plus 75mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Noclog 75mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Noclog Plus Tablet 30's</t>
-  </si>
-  <si>
-    <t>Noficon 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Olmesta 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Olmesta M Tablet 30's</t>
-  </si>
-  <si>
-    <t>Olmesta 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Olmesta Plus Tablet</t>
-  </si>
-  <si>
-    <t>Olmesta 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Pivasta 2mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Rivarox 10mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Rivarox 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Rivarox 15mg FC Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Rivarox 2.5mg Tablet</t>
-  </si>
-  <si>
-    <t>Sidoplus 50mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Sidopin 5mg Tablet</t>
-  </si>
-  <si>
-    <t>Sidoplus 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Sidoplus 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Sitazid 50mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Sitazid 100mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>Sitazid M 50/1000 Tablet 18's</t>
-  </si>
-  <si>
-    <t>Sitazid M 50/500 Tablet 20's</t>
-  </si>
-  <si>
-    <t>Topress 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Vigamet 50/500 Tablet 20'S</t>
-  </si>
-  <si>
-    <t>Vigamet 50/850 Tablet 18's</t>
-  </si>
-  <si>
-    <t>Vigatin 50mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Virenta 0.5mg Tablet - 10's</t>
+    <t>Cortider</t>
+  </si>
+  <si>
+    <t>Esoral</t>
+  </si>
+  <si>
+    <t>ETRIAM</t>
+  </si>
+  <si>
+    <t>Facid</t>
+  </si>
+  <si>
+    <t>Flucoder</t>
+  </si>
+  <si>
+    <t>Hairgrow</t>
+  </si>
+  <si>
+    <t>Kezona</t>
+  </si>
+  <si>
+    <t>Licnil</t>
+  </si>
+  <si>
+    <t>Losectil</t>
+  </si>
+  <si>
+    <t>Lulizol</t>
+  </si>
+  <si>
+    <t>Mupiron</t>
+  </si>
+  <si>
+    <t>Mycofin</t>
+  </si>
+  <si>
+    <t>Nospot</t>
+  </si>
+  <si>
+    <t>Orogurd</t>
+  </si>
+  <si>
+    <t>Panoral</t>
+  </si>
+  <si>
+    <t>Perosa</t>
+  </si>
+  <si>
+    <t>Rabifast</t>
+  </si>
+  <si>
+    <t>Softi</t>
+  </si>
+  <si>
+    <t>Sorex</t>
+  </si>
+  <si>
+    <t>Topibet</t>
+  </si>
+  <si>
+    <t>Topiclo</t>
+  </si>
+  <si>
+    <t>Cortider 10gm Cream</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg EC Tablet - 42's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet 112's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; MUPS 20</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral MUPS 20mg Tab 50s</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Capsule - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 100's</t>
+  </si>
+  <si>
+    <t>Etriam 10gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Ointment</t>
+  </si>
+  <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
+    <t>Facid 250mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Facid HC Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Flucoder 200mg Capsule - 10's</t>
+  </si>
+  <si>
+    <t>Flucoder 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 50mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Hairgrow 5% Topical Solution 60ml</t>
+  </si>
+  <si>
+    <t>Hairgrow 2% Topical Solution 60ml</t>
+  </si>
+  <si>
+    <t>Kezona 200mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Licnil 60gm Lotion</t>
+  </si>
+  <si>
+    <t>Licnil 117gm Lotion</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule (100's)</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil MUPS 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil Mups 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
+    <t>Losectil 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Lulizol 20gm Cream</t>
+  </si>
+  <si>
+    <t>Lulizol 10gm Cream</t>
+  </si>
+  <si>
+    <t>Mupiron 20gm Ointment</t>
+  </si>
+  <si>
+    <t>Mupiron 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Mycofin 5gm Cream</t>
+  </si>
+  <si>
+    <t>Mycofin 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Nospot 30gm Cream</t>
+  </si>
+  <si>
+    <t>Orogurd 15gm Oral Gel</t>
+  </si>
+  <si>
+    <t>Panoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Panoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Perosa 30gm Cream</t>
+  </si>
+  <si>
+    <t>Rabifast 20 mg Tablet</t>
+  </si>
+  <si>
+    <t>Rabifast 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Softi Ointment 15gm</t>
+  </si>
+  <si>
+    <t>Softi Ointment 50gm</t>
+  </si>
+  <si>
+    <t>Sorex 5gm Oral Paste</t>
+  </si>
+  <si>
+    <t>Topibet CL 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo NN 15gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo S 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo S Ointment 1's 20g</t>
+  </si>
+  <si>
+    <t>Topiclo S 6% 10gm Ointment</t>
+  </si>
+  <si>
+    <t>10 gm</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>42's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>60's</t>
+  </si>
+  <si>
+    <t>112's</t>
+  </si>
+  <si>
+    <t>1's</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>15gm</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
+    <t>100 's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>120's</t>
+  </si>
+  <si>
     <t>24's</t>
   </si>
   <si>
-    <t>100 's</t>
-  </si>
-  <si>
-    <t>50's</t>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
+    <t>500's</t>
+  </si>
+  <si>
+    <t>10gm</t>
+  </si>
+  <si>
+    <t>5gm</t>
+  </si>
+  <si>
+    <t>40's</t>
   </si>
   <si>
     <t>40 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>20 's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>20s</t>
-  </si>
-  <si>
-    <t>50 's</t>
-  </si>
-  <si>
-    <t>20'S</t>
-  </si>
-  <si>
-    <t>10 's</t>
-  </si>
-  <si>
-    <t>10's</t>
-  </si>
-  <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>18's</t>
+    <t>30 gm</t>
+  </si>
+  <si>
+    <t>70's</t>
+  </si>
+  <si>
+    <t>50gm</t>
   </si>
 </sst>
 </file>
@@ -794,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,39 +816,39 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F2">
-        <v>5523</v>
+        <v>376</v>
       </c>
       <c r="G2">
-        <v>1242067</v>
+        <v>9866</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>255472</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -880,16 +862,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F4">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>59764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -903,194 +885,194 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>57279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F6">
-        <v>2736</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>369168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F7">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>158272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F8">
-        <v>7895</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1775506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F9">
-        <v>3310</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>446618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F10">
-        <v>1110</v>
+        <v>6414</v>
       </c>
       <c r="G10">
-        <v>249627</v>
+        <v>2692533</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F11">
-        <v>10786</v>
+        <v>17894</v>
       </c>
       <c r="G11">
-        <v>2425663</v>
+        <v>684624</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>478241</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1101,65 +1083,65 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F14">
-        <v>4425</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1061469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F15">
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>139858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1170,19 +1152,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1193,1681 +1175,1382 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>10028</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3758694</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3830</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>861328</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3271229</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>11842</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>355141</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>32453</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F23">
-        <v>2904</v>
+        <v>2985</v>
       </c>
       <c r="G23">
-        <v>653080</v>
+        <v>380408</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F24">
-        <v>3846</v>
+        <v>1085</v>
       </c>
       <c r="G24">
-        <v>864926</v>
+        <v>528677</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F25">
-        <v>2223</v>
+        <v>2956</v>
       </c>
       <c r="G25">
-        <v>166636</v>
+        <v>276977</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F26">
-        <v>323</v>
+        <v>2176</v>
       </c>
       <c r="G26">
-        <v>48427</v>
+        <v>146814</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F27">
-        <v>667</v>
+        <v>55</v>
       </c>
       <c r="G27">
-        <v>112502</v>
+        <v>10307</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F29">
-        <v>1177</v>
+        <v>593</v>
       </c>
       <c r="G29">
-        <v>211754</v>
+        <v>108020</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
         <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F30">
-        <v>241</v>
+        <v>454</v>
       </c>
       <c r="G30">
-        <v>72263</v>
+        <v>26545</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
         <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F31">
-        <v>2374</v>
+        <v>24</v>
       </c>
       <c r="G31">
-        <v>711843</v>
+        <v>10794</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F32">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>341835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="F33">
-        <v>145</v>
+        <v>445</v>
       </c>
       <c r="G33">
-        <v>32609</v>
+        <v>90068</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>31281</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F35">
-        <v>3003</v>
+        <v>63</v>
       </c>
       <c r="G35">
-        <v>900449</v>
+        <v>9917</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F36">
-        <v>7512</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>2815572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F37">
-        <v>8014</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1802268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F38">
-        <v>18125</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>2717300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F39">
-        <v>1069</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>120198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F40">
-        <v>2466</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>369727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>80959</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
         <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F42">
-        <v>453</v>
+        <v>1238</v>
       </c>
       <c r="G42">
-        <v>101875</v>
+        <v>324814</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
         <v>15</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F43">
-        <v>3253</v>
+        <v>40935</v>
       </c>
       <c r="G43">
-        <v>487722</v>
+        <v>18411334</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
         <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>21</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F44">
-        <v>662</v>
+        <v>992</v>
       </c>
       <c r="G44">
-        <v>148877</v>
+        <v>223090</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F45">
-        <v>19303</v>
+        <v>2177</v>
       </c>
       <c r="G45">
-        <v>3617575</v>
+        <v>881249</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F46">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="G46">
-        <v>53231</v>
+        <v>40839</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F47">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>12931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>762738</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>3969</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>357051</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="F50">
-        <v>1491</v>
+        <v>6824</v>
       </c>
       <c r="G50">
-        <v>321891</v>
+        <v>1534649</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F51">
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1226025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
         <v>126</v>
       </c>
       <c r="F52">
-        <v>8067</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>3265521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F53">
-        <v>18264</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>4928905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>6509</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>249034</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>4520</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>609883</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F56">
-        <v>12581</v>
+        <v>12961</v>
       </c>
       <c r="G56">
-        <v>4715610</v>
+        <v>971556</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F57">
-        <v>3328</v>
+        <v>52</v>
       </c>
       <c r="G57">
-        <v>1347174</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>111876</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2079</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>77920</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2371</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>710944</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>108849</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
         <v>20</v>
-      </c>
-      <c r="B62" t="s">
-        <v>26</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F62">
-        <v>9429</v>
+        <v>2300</v>
       </c>
       <c r="G62">
-        <v>3392742</v>
+        <v>103454</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>11964</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F64">
-        <v>6237</v>
+        <v>186</v>
       </c>
       <c r="G64">
-        <v>2244197</v>
+        <v>27885</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>52546</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>2059</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>540219</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F67">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>35892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F68">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>301127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F69">
-        <v>6508</v>
+        <v>482</v>
       </c>
       <c r="G69">
-        <v>1170854</v>
+        <v>32520</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F70">
-        <v>6043</v>
+        <v>163</v>
       </c>
       <c r="G70">
-        <v>1087196</v>
+        <v>9163</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F71">
-        <v>977</v>
+        <v>2508</v>
       </c>
       <c r="G71">
-        <v>175772</v>
+        <v>56404</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F72">
-        <v>708</v>
+        <v>1277</v>
       </c>
       <c r="G72">
-        <v>79607</v>
+        <v>62228</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>307054</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F74">
-        <v>22748</v>
+        <v>275</v>
       </c>
       <c r="G74">
-        <v>8526177</v>
+        <v>10307</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F75">
-        <v>1091</v>
+        <v>198</v>
       </c>
       <c r="G75">
-        <v>736054</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F76">
-        <v>758</v>
+        <v>467</v>
       </c>
       <c r="G76">
-        <v>397752</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
       <c r="D77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" t="s">
         <v>112</v>
       </c>
-      <c r="E77" t="s">
-        <v>126</v>
-      </c>
       <c r="F77">
-        <v>2950</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>530734</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
-        <v>25</v>
-      </c>
-      <c r="B78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78">
-        <v>77</v>
-      </c>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" t="s">
-        <v>129</v>
-      </c>
-      <c r="F78">
-        <v>5415</v>
-      </c>
-      <c r="G78">
-        <v>1217779</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79">
-        <v>25</v>
-      </c>
-      <c r="B79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79">
-        <v>78</v>
-      </c>
-      <c r="D79" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79">
-        <v>1113</v>
-      </c>
-      <c r="G79">
-        <v>208587</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80">
-        <v>25</v>
-      </c>
-      <c r="B80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" t="s">
-        <v>130</v>
-      </c>
-      <c r="F80">
-        <v>924</v>
-      </c>
-      <c r="G80">
-        <v>145456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>25</v>
-      </c>
-      <c r="B81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81">
-        <v>80</v>
-      </c>
-      <c r="D81" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" t="s">
-        <v>130</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <v>26</v>
-      </c>
-      <c r="B82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82">
-        <v>81</v>
-      </c>
-      <c r="D82" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" t="s">
-        <v>133</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>26</v>
-      </c>
-      <c r="B83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83">
-        <v>82</v>
-      </c>
-      <c r="D83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <v>26</v>
-      </c>
-      <c r="B84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C84">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" t="s">
-        <v>140</v>
-      </c>
-      <c r="F84">
-        <v>204</v>
-      </c>
-      <c r="G84">
-        <v>41289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>26</v>
-      </c>
-      <c r="B85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85">
-        <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>120</v>
-      </c>
-      <c r="E85" t="s">
-        <v>133</v>
-      </c>
-      <c r="F85">
-        <v>1576</v>
-      </c>
-      <c r="G85">
-        <v>330802</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
-        <v>27</v>
-      </c>
-      <c r="B86" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86">
-        <v>85</v>
-      </c>
-      <c r="D86" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86">
-        <v>176</v>
-      </c>
-      <c r="G86">
-        <v>26387</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <v>28</v>
-      </c>
-      <c r="B87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87">
-        <v>86</v>
-      </c>
-      <c r="D87" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" t="s">
-        <v>133</v>
-      </c>
-      <c r="F87">
-        <v>3820</v>
-      </c>
-      <c r="G87">
-        <v>1145427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>28</v>
-      </c>
-      <c r="B88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88">
-        <v>87</v>
-      </c>
-      <c r="D88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" t="s">
-        <v>140</v>
-      </c>
-      <c r="F88">
-        <v>1828</v>
-      </c>
-      <c r="G88">
-        <v>542641</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>29</v>
-      </c>
-      <c r="B89" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89">
-        <v>88</v>
-      </c>
-      <c r="D89" t="s">
-        <v>124</v>
-      </c>
-      <c r="E89" t="s">
-        <v>133</v>
-      </c>
-      <c r="F89">
-        <v>488</v>
-      </c>
-      <c r="G89">
-        <v>146326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
-        <v>30</v>
-      </c>
-      <c r="B90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90">
-        <v>89</v>
-      </c>
-      <c r="D90" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" t="s">
-        <v>138</v>
-      </c>
-      <c r="F90">
-        <v>548</v>
-      </c>
-      <c r="G90">
-        <v>197181</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -103,96 +103,96 @@
     <t>Cortider 10gm Cream</t>
   </si>
   <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; MUPS 20</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Esoral 40mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 50's</t>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Capsule - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet 112's</t>
+  </si>
+  <si>
+    <t>Esoral MUPS 20mg Tab 50s</t>
+  </si>
+  <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 100's</t>
   </si>
   <si>
     <t>Esoral 40mg EC Tablet - 42's</t>
   </si>
   <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet 112's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Esoral Mups 40 Tablet</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral MUPS 20mg Tab 50s</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Capsule - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 100's</t>
-  </si>
-  <si>
     <t>Etriam 10gm Cream</t>
   </si>
   <si>
+    <t>Facid 250mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Facid HC Cream</t>
+  </si>
+  <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
     <t>Facid 15gm Ointment</t>
   </si>
   <si>
-    <t>Facid 10gm BT Cream</t>
-  </si>
-  <si>
-    <t>Facid 250mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>Facid HC Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Cream</t>
+    <t>Flucoder 50mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 150mg Capsule</t>
   </si>
   <si>
     <t>Flucoder 200mg Capsule - 10's</t>
   </si>
   <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucoder 50mg Capsule</t>
-  </si>
-  <si>
     <t>Flucoder 35ml Dry Suspension</t>
   </si>
   <si>
+    <t>Hairgrow 2% Topical Solution 60ml</t>
+  </si>
+  <si>
     <t>Hairgrow 5% Topical Solution 60ml</t>
   </si>
   <si>
-    <t>Hairgrow 2% Topical Solution 60ml</t>
-  </si>
-  <si>
     <t>Kezona 200mg Tablet 30's</t>
   </si>
   <si>
@@ -202,69 +202,69 @@
     <t>Licnil 117gm Lotion</t>
   </si>
   <si>
+    <t>Losectil Mups 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil MUPS 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
     <t>Losectil 20mg Capsule (100's)</t>
   </si>
   <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil V 40mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil MUPS 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
     <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
   </si>
   <si>
-    <t>Losectil 40mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Losectil Mups 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
     <t>Losectil 40mg IV Injection</t>
   </si>
   <si>
+    <t>Lulizol 10gm Cream</t>
+  </si>
+  <si>
     <t>Lulizol 20gm Cream</t>
   </si>
   <si>
-    <t>Lulizol 10gm Cream</t>
-  </si>
-  <si>
     <t>Mupiron 20gm Ointment</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>Orogurd 15gm Oral Gel</t>
   </si>
   <si>
+    <t>Panoral 20mg Tablet</t>
+  </si>
+  <si>
     <t>Panoral 40mg Tablet</t>
   </si>
   <si>
-    <t>Panoral 20mg Tablet</t>
-  </si>
-  <si>
     <t>Perosa 30gm Cream</t>
   </si>
   <si>
@@ -310,18 +310,18 @@
     <t>Topibet CL 10gm Ointment</t>
   </si>
   <si>
+    <t>Topiclo S 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
     <t>Topiclo NN 15gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo S 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
     <t>Topiclo S Ointment 1's 20g</t>
   </si>
   <si>
@@ -331,85 +331,85 @@
     <t>10 gm</t>
   </si>
   <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>50's</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>50's</t>
+    <t>1's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>60's</t>
+  </si>
+  <si>
+    <t>112's</t>
   </si>
   <si>
     <t>42's</t>
   </si>
   <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>60's</t>
-  </si>
-  <si>
-    <t>112's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>100's</t>
+    <t>10's</t>
   </si>
   <si>
     <t>15gm</t>
   </si>
   <si>
-    <t>10's</t>
+    <t>30 's</t>
   </si>
   <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>35ml</t>
   </si>
   <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>120's</t>
+  </si>
+  <si>
+    <t>500's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
     <t>100 's</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>120's</t>
-  </si>
-  <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>500's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
     <t>5gm</t>
   </si>
   <si>
+    <t>40 's</t>
+  </si>
+  <si>
     <t>40's</t>
-  </si>
-  <si>
-    <t>40 's</t>
   </si>
   <si>
     <t>30 gm</t>
@@ -822,10 +822,10 @@
         <v>104</v>
       </c>
       <c r="F2">
-        <v>376</v>
+        <v>557</v>
       </c>
       <c r="G2">
-        <v>9866</v>
+        <v>14615</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -845,10 +845,10 @@
         <v>105</v>
       </c>
       <c r="F3">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>255472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -888,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -957,13 +957,13 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1905</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>342728</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -980,7 +980,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10">
-        <v>6414</v>
+        <v>27576</v>
       </c>
       <c r="G10">
-        <v>2692533</v>
+        <v>1055057</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1026,13 +1026,13 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F11">
-        <v>17894</v>
+        <v>5758</v>
       </c>
       <c r="G11">
-        <v>684624</v>
+        <v>1294916</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1049,13 +1049,13 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F12">
-        <v>1519</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>478241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1072,7 +1072,7 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>9809</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4117720</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1141,13 +1141,13 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>15873</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5949517</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1164,13 +1164,13 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>721928</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1187,13 +1187,13 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18">
-        <v>10028</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3758694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1210,13 +1210,13 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>3830</v>
+        <v>9361</v>
       </c>
       <c r="G19">
-        <v>861328</v>
+        <v>4912091</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1236,10 +1236,10 @@
         <v>114</v>
       </c>
       <c r="F20">
-        <v>6234</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3271229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1256,13 +1256,13 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21">
-        <v>11842</v>
+        <v>17660</v>
       </c>
       <c r="G21">
-        <v>355141</v>
+        <v>529623</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1282,10 +1282,10 @@
         <v>115</v>
       </c>
       <c r="F22">
-        <v>481</v>
+        <v>1840</v>
       </c>
       <c r="G22">
-        <v>32453</v>
+        <v>896558</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1302,13 +1302,13 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F23">
-        <v>2985</v>
+        <v>3743</v>
       </c>
       <c r="G23">
-        <v>380408</v>
+        <v>252540</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1325,13 +1325,13 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F24">
-        <v>1085</v>
+        <v>4600</v>
       </c>
       <c r="G24">
-        <v>528677</v>
+        <v>431020</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1351,10 +1351,10 @@
         <v>104</v>
       </c>
       <c r="F25">
-        <v>2956</v>
+        <v>4646</v>
       </c>
       <c r="G25">
-        <v>276977</v>
+        <v>592086</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1371,13 +1371,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26">
-        <v>2176</v>
+        <v>859</v>
       </c>
       <c r="G26">
-        <v>146814</v>
+        <v>57956</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1394,13 +1394,13 @@
         <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F27">
-        <v>55</v>
+        <v>897</v>
       </c>
       <c r="G27">
-        <v>10307</v>
+        <v>163397</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1417,13 +1417,13 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="G28">
-        <v>29520</v>
+        <v>43209</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1440,13 +1440,13 @@
         <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F29">
-        <v>593</v>
+        <v>91</v>
       </c>
       <c r="G29">
-        <v>108020</v>
+        <v>17054</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1466,10 +1466,10 @@
         <v>119</v>
       </c>
       <c r="F30">
-        <v>454</v>
+        <v>687</v>
       </c>
       <c r="G30">
-        <v>26545</v>
+        <v>40168</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1486,13 +1486,13 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>10794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1509,13 +1509,13 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>18890</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1532,13 +1532,13 @@
         <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F33">
-        <v>445</v>
+        <v>659</v>
       </c>
       <c r="G33">
-        <v>90068</v>
+        <v>133381</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1555,13 +1555,13 @@
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F34">
-        <v>321</v>
+        <v>485</v>
       </c>
       <c r="G34">
-        <v>31281</v>
+        <v>47263</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1578,13 +1578,13 @@
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F35">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G35">
-        <v>9917</v>
+        <v>18732</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1604,10 +1604,10 @@
         <v>120</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>62788</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1624,13 +1624,13 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>5921</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>532653</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1647,13 +1647,13 @@
         <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>488008</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1670,13 +1670,13 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>65099</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>29279577</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1693,13 +1693,13 @@
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>10008</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2250699</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1716,13 +1716,13 @@
         <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>225</v>
+        <v>3099</v>
       </c>
       <c r="G41">
-        <v>80959</v>
+        <v>1161536</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1739,13 +1739,13 @@
         <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F42">
-        <v>1238</v>
+        <v>3280</v>
       </c>
       <c r="G42">
-        <v>324814</v>
+        <v>1327744</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1762,13 +1762,13 @@
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43">
-        <v>40935</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>18411334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1785,13 +1785,13 @@
         <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F44">
-        <v>992</v>
+        <v>356</v>
       </c>
       <c r="G44">
-        <v>223090</v>
+        <v>128095</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1808,13 +1808,13 @@
         <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F45">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>881249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1834,10 +1834,10 @@
         <v>124</v>
       </c>
       <c r="F46">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>40839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1854,7 +1854,7 @@
         <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F48">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>762738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1900,13 +1900,13 @@
         <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F49">
-        <v>3969</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>357051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1923,13 +1923,13 @@
         <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50">
-        <v>6824</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1534649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1946,7 +1946,7 @@
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1992,13 +1992,13 @@
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>366795</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2015,13 +2015,13 @@
         <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F54">
-        <v>6509</v>
+        <v>8407</v>
       </c>
       <c r="G54">
-        <v>249034</v>
+        <v>321651</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2038,13 +2038,13 @@
         <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F55">
-        <v>4520</v>
+        <v>20280</v>
       </c>
       <c r="G55">
-        <v>609883</v>
+        <v>1520188</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2061,13 +2061,13 @@
         <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F56">
-        <v>12961</v>
+        <v>6958</v>
       </c>
       <c r="G56">
-        <v>971556</v>
+        <v>938842</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2084,13 +2084,13 @@
         <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F57">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="G57">
-        <v>8575</v>
+        <v>16327</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2110,10 +2110,10 @@
         <v>128</v>
       </c>
       <c r="F58">
-        <v>1066</v>
+        <v>1542</v>
       </c>
       <c r="G58">
-        <v>111876</v>
+        <v>161832</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2133,10 +2133,10 @@
         <v>129</v>
       </c>
       <c r="F59">
-        <v>2079</v>
+        <v>3425</v>
       </c>
       <c r="G59">
-        <v>77920</v>
+        <v>128369</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2153,13 +2153,13 @@
         <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F60">
-        <v>2371</v>
+        <v>3709</v>
       </c>
       <c r="G60">
-        <v>710944</v>
+        <v>1112143</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2176,13 +2176,13 @@
         <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F61">
-        <v>726</v>
+        <v>1181</v>
       </c>
       <c r="G61">
-        <v>108849</v>
+        <v>177067</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2199,13 +2199,13 @@
         <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F62">
-        <v>2300</v>
+        <v>3157</v>
       </c>
       <c r="G62">
-        <v>103454</v>
+        <v>142001</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2225,10 +2225,10 @@
         <v>130</v>
       </c>
       <c r="F63">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="G63">
-        <v>11964</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2248,10 +2248,10 @@
         <v>131</v>
       </c>
       <c r="F64">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="G64">
-        <v>27885</v>
+        <v>15112</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2271,10 +2271,10 @@
         <v>132</v>
       </c>
       <c r="F65">
-        <v>1402</v>
+        <v>2229</v>
       </c>
       <c r="G65">
-        <v>52546</v>
+        <v>83542</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2294,10 +2294,10 @@
         <v>133</v>
       </c>
       <c r="F66">
-        <v>2059</v>
+        <v>3217</v>
       </c>
       <c r="G66">
-        <v>540219</v>
+        <v>844044</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2337,7 +2337,7 @@
         <v>94</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>134</v>
       </c>
       <c r="F69">
-        <v>482</v>
+        <v>861</v>
       </c>
       <c r="G69">
-        <v>32520</v>
+        <v>58091</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2386,10 +2386,10 @@
         <v>129</v>
       </c>
       <c r="F70">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="G70">
-        <v>9163</v>
+        <v>14504</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2409,10 +2409,10 @@
         <v>128</v>
       </c>
       <c r="F71">
-        <v>2508</v>
+        <v>3911</v>
       </c>
       <c r="G71">
-        <v>56404</v>
+        <v>87958</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2429,13 +2429,13 @@
         <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F72">
-        <v>1277</v>
+        <v>9469</v>
       </c>
       <c r="G72">
-        <v>62228</v>
+        <v>496838</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2455,10 +2455,10 @@
         <v>128</v>
       </c>
       <c r="F73">
-        <v>5852</v>
+        <v>275</v>
       </c>
       <c r="G73">
-        <v>307054</v>
+        <v>9275</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2478,10 +2478,10 @@
         <v>128</v>
       </c>
       <c r="F74">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="G74">
-        <v>10307</v>
+        <v>14729</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2498,13 +2498,13 @@
         <v>101</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F75">
-        <v>198</v>
+        <v>2058</v>
       </c>
       <c r="G75">
-        <v>6678</v>
+        <v>100286</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2521,13 +2521,13 @@
         <v>102</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F76">
-        <v>467</v>
+        <v>905</v>
       </c>
       <c r="G76">
-        <v>42011</v>
+        <v>81413</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2544,7 +2544,7 @@
         <v>103</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F77">
         <v>0</v>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -103,90 +103,90 @@
     <t>Cortider 10gm Cream</t>
   </si>
   <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
     <t>Esoral Injection &amp; Capsule 20</t>
   </si>
   <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 40mg EC Tablet - 42's</t>
+  </si>
+  <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 100's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Capsule - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet 112's</t>
+  </si>
+  <si>
+    <t>Esoral MUPS 20mg Tab 50s</t>
+  </si>
+  <si>
     <t>Esoral 20mg Tablet</t>
   </si>
   <si>
-    <t>Esoral 40mg Tablet</t>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 60's</t>
   </si>
   <si>
     <t>Esoral Injection &amp; MUPS 20</t>
   </si>
   <si>
-    <t>Esoral 20mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Capsule - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet 112's</t>
-  </si>
-  <si>
-    <t>Esoral MUPS 20mg Tab 50s</t>
-  </si>
-  <si>
-    <t>Esoral Mups 40 Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 100's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
     <t>Etriam 10gm Cream</t>
   </si>
   <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Ointment</t>
+  </si>
+  <si>
     <t>Facid 250mg Tablet 10's</t>
   </si>
   <si>
-    <t>Facid 15gm Cream</t>
-  </si>
-  <si>
     <t>Facid HC Cream</t>
   </si>
   <si>
-    <t>Facid 10gm BT Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Ointment</t>
+    <t>Flucoder 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 200mg Capsule - 10's</t>
+  </si>
+  <si>
+    <t>Flucoder 35ml Dry Suspension</t>
   </si>
   <si>
     <t>Flucoder 50mg Capsule</t>
   </si>
   <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucoder 200mg Capsule - 10's</t>
-  </si>
-  <si>
-    <t>Flucoder 35ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Hairgrow 2% Topical Solution 60ml</t>
   </si>
   <si>
@@ -196,87 +196,87 @@
     <t>Kezona 200mg Tablet 30's</t>
   </si>
   <si>
+    <t>Licnil 117gm Lotion</t>
+  </si>
+  <si>
     <t>Licnil 60gm Lotion</t>
   </si>
   <si>
-    <t>Licnil 117gm Lotion</t>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
   </si>
   <si>
     <t>Losectil Mups 40mg Tablet</t>
   </si>
   <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
+    <t>Losectil MUPS 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule (100's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
     <t>Losectil 10mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil MUPS 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
     <t>Losectil 40mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
-    <t>Losectil V 40mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule (100's)</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg IV Injection</t>
+    <t>Lulizol 20gm Cream</t>
   </si>
   <si>
     <t>Lulizol 10gm Cream</t>
   </si>
   <si>
-    <t>Lulizol 20gm Cream</t>
-  </si>
-  <si>
     <t>Mupiron 20gm Ointment</t>
   </si>
   <si>
     <t>Mupiron 10gm Ointment</t>
   </si>
   <si>
+    <t>Mycofin 250mg Tablet</t>
+  </si>
+  <si>
     <t>Mycofin 5gm Cream</t>
   </si>
   <si>
-    <t>Mycofin 250mg Tablet</t>
-  </si>
-  <si>
     <t>Nospot 30gm Cream</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Perosa 30gm Cream</t>
   </si>
   <si>
+    <t>Rabifast 20mg Tablet - 50's</t>
+  </si>
+  <si>
     <t>Rabifast 20 mg Tablet</t>
   </si>
   <si>
-    <t>Rabifast 20mg Tablet - 50's</t>
-  </si>
-  <si>
     <t>Softi Ointment 15gm</t>
   </si>
   <si>
@@ -310,70 +310,79 @@
     <t>Topibet CL 10gm Ointment</t>
   </si>
   <si>
+    <t>Topiclo S 6% 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo S Ointment 1's 20g</t>
+  </si>
+  <si>
     <t>Topiclo S 10gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
     <t>Topiclo NN 15gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo S Ointment 1's 20g</t>
-  </si>
-  <si>
-    <t>Topiclo S 6% 10gm Ointment</t>
-  </si>
-  <si>
     <t>10 gm</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
     <t>Bundle</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>30's</t>
+    <t>42's</t>
   </si>
   <si>
     <t>1's</t>
   </si>
   <si>
-    <t>80's</t>
-  </si>
-  <si>
     <t>100's</t>
   </si>
   <si>
+    <t>112's</t>
+  </si>
+  <si>
     <t>60's</t>
   </si>
   <si>
-    <t>112's</t>
-  </si>
-  <si>
-    <t>42's</t>
+    <t>15gm</t>
   </si>
   <si>
     <t>10's</t>
   </si>
   <si>
-    <t>15gm</t>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>35ml</t>
   </si>
   <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
   </si>
   <si>
     <t>24's</t>
@@ -382,22 +391,13 @@
     <t>120's</t>
   </si>
   <si>
+    <t>48's</t>
+  </si>
+  <si>
+    <t>100 's</t>
+  </si>
+  <si>
     <t>500's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>100 's</t>
   </si>
   <si>
     <t>10gm</t>
@@ -807,7 +807,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -822,15 +822,15 @@
         <v>104</v>
       </c>
       <c r="F2">
-        <v>557</v>
+        <v>1161</v>
       </c>
       <c r="G2">
-        <v>14615</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -888,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -911,7 +911,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -934,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -957,18 +957,18 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8">
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>342728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -980,7 +980,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1003,18 +1003,18 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10">
-        <v>27576</v>
+        <v>5162</v>
       </c>
       <c r="G10">
-        <v>1055057</v>
+        <v>1625204</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1029,15 +1029,15 @@
         <v>108</v>
       </c>
       <c r="F11">
-        <v>5758</v>
+        <v>4221</v>
       </c>
       <c r="G11">
-        <v>1294916</v>
+        <v>759400</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1049,18 +1049,18 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>51100</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1955086</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1072,18 +1072,18 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>21275</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>11163843</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1095,18 +1095,18 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>13082</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2942010</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1121,15 +1121,15 @@
         <v>113</v>
       </c>
       <c r="F15">
-        <v>9809</v>
+        <v>22459</v>
       </c>
       <c r="G15">
-        <v>4117720</v>
+        <v>9428063</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1141,18 +1141,18 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16">
-        <v>15873</v>
+        <v>40322</v>
       </c>
       <c r="G16">
-        <v>5949517</v>
+        <v>15113492</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1164,18 +1164,18 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17">
-        <v>2293</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>721928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1187,7 +1187,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1210,18 +1210,18 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F19">
-        <v>9361</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4912091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1233,7 +1233,7 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1256,18 +1256,18 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>17660</v>
+        <v>36775</v>
       </c>
       <c r="G21">
-        <v>529623</v>
+        <v>1102882</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1279,18 +1279,18 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F22">
-        <v>1840</v>
+        <v>10467</v>
       </c>
       <c r="G22">
-        <v>896558</v>
+        <v>1333914</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1302,18 +1302,18 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23">
-        <v>3743</v>
+        <v>8243</v>
       </c>
       <c r="G23">
-        <v>252540</v>
+        <v>556155</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1325,18 +1325,18 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F24">
-        <v>4600</v>
+        <v>1786</v>
       </c>
       <c r="G24">
-        <v>431020</v>
+        <v>120501</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1348,18 +1348,18 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F25">
-        <v>4646</v>
+        <v>4232</v>
       </c>
       <c r="G25">
-        <v>592086</v>
+        <v>2062084</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1371,18 +1371,18 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>859</v>
+        <v>10164</v>
       </c>
       <c r="G26">
-        <v>57956</v>
+        <v>952366</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1397,15 +1397,15 @@
         <v>117</v>
       </c>
       <c r="F27">
-        <v>897</v>
+        <v>693</v>
       </c>
       <c r="G27">
-        <v>163397</v>
+        <v>114289</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1417,18 +1417,18 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F28">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G28">
-        <v>43209</v>
+        <v>48726</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1440,18 +1440,18 @@
         <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F29">
-        <v>91</v>
+        <v>1301</v>
       </c>
       <c r="G29">
-        <v>17054</v>
+        <v>76069</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1466,15 +1466,15 @@
         <v>119</v>
       </c>
       <c r="F30">
-        <v>687</v>
+        <v>2018</v>
       </c>
       <c r="G30">
-        <v>40168</v>
+        <v>367598</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1486,7 +1486,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1509,18 +1509,18 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>18890</v>
+        <v>35982</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1535,15 +1535,15 @@
         <v>108</v>
       </c>
       <c r="F33">
-        <v>659</v>
+        <v>1533</v>
       </c>
       <c r="G33">
-        <v>133381</v>
+        <v>310279</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1555,18 +1555,18 @@
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F34">
-        <v>485</v>
+        <v>297</v>
       </c>
       <c r="G34">
-        <v>47263</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -1578,18 +1578,18 @@
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>119</v>
+        <v>1184</v>
       </c>
       <c r="G35">
-        <v>18732</v>
+        <v>115380</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -1604,15 +1604,15 @@
         <v>120</v>
       </c>
       <c r="F36">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>62788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -1624,18 +1624,18 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F37">
-        <v>5921</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>532653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1647,18 +1647,18 @@
         <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F38">
-        <v>1860</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>488008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -1670,18 +1670,18 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39">
-        <v>65099</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>29279577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1693,18 +1693,18 @@
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F40">
-        <v>10008</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>2250699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -1716,18 +1716,18 @@
         <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41">
-        <v>3099</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1161536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -1739,18 +1739,18 @@
         <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F42">
-        <v>3280</v>
+        <v>3661</v>
       </c>
       <c r="G42">
-        <v>1327744</v>
+        <v>823322</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -1762,18 +1762,18 @@
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>139610</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -1785,18 +1785,18 @@
         <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F44">
-        <v>356</v>
+        <v>166775</v>
       </c>
       <c r="G44">
-        <v>128095</v>
+        <v>75010391</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -1808,18 +1808,18 @@
         <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>4330</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1136062</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -1831,18 +1831,18 @@
         <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>290734</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -1854,18 +1854,18 @@
         <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>18807</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>719555</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1877,7 +1877,7 @@
         <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -1900,18 +1900,18 @@
         <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>20492</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>4608445</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -1923,18 +1923,18 @@
         <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>7170</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>2687387</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -1992,18 +1992,18 @@
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F53">
-        <v>1631</v>
+        <v>13138</v>
       </c>
       <c r="G53">
-        <v>366795</v>
+        <v>1181894</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -2015,18 +2015,18 @@
         <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F54">
-        <v>8407</v>
+        <v>7232</v>
       </c>
       <c r="G54">
-        <v>321651</v>
+        <v>2927513</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -2038,18 +2038,18 @@
         <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>20280</v>
+        <v>14624</v>
       </c>
       <c r="G55">
-        <v>1520188</v>
+        <v>1973216</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -2061,18 +2061,18 @@
         <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>6958</v>
+        <v>47610</v>
       </c>
       <c r="G56">
-        <v>938842</v>
+        <v>3568845</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -2084,18 +2084,18 @@
         <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F57">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="G57">
-        <v>16327</v>
+        <v>37107</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -2110,15 +2110,15 @@
         <v>128</v>
       </c>
       <c r="F58">
-        <v>1542</v>
+        <v>3078</v>
       </c>
       <c r="G58">
-        <v>161832</v>
+        <v>323036</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -2130,18 +2130,18 @@
         <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F59">
-        <v>3425</v>
+        <v>8371</v>
       </c>
       <c r="G59">
-        <v>128369</v>
+        <v>2510044</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -2153,18 +2153,18 @@
         <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F60">
-        <v>3709</v>
+        <v>7345</v>
       </c>
       <c r="G60">
-        <v>1112143</v>
+        <v>275290</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -2176,18 +2176,18 @@
         <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>1181</v>
+        <v>2852</v>
       </c>
       <c r="G61">
-        <v>177067</v>
+        <v>427600</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -2199,18 +2199,18 @@
         <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62">
-        <v>3157</v>
+        <v>6269</v>
       </c>
       <c r="G62">
-        <v>142001</v>
+        <v>281979</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -2225,15 +2225,15 @@
         <v>130</v>
       </c>
       <c r="F63">
-        <v>306</v>
+        <v>824</v>
       </c>
       <c r="G63">
-        <v>45875</v>
+        <v>123534</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -2248,15 +2248,15 @@
         <v>131</v>
       </c>
       <c r="F64">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G64">
-        <v>15112</v>
+        <v>31904</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -2271,15 +2271,15 @@
         <v>132</v>
       </c>
       <c r="F65">
-        <v>2229</v>
+        <v>4425</v>
       </c>
       <c r="G65">
-        <v>83542</v>
+        <v>165849</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -2291,18 +2291,18 @@
         <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F66">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>844044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
@@ -2314,18 +2314,18 @@
         <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>7445</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1953344</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -2337,7 +2337,7 @@
         <v>94</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
@@ -2363,15 +2363,15 @@
         <v>134</v>
       </c>
       <c r="F69">
-        <v>861</v>
+        <v>1948</v>
       </c>
       <c r="G69">
-        <v>58091</v>
+        <v>131431</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -2386,15 +2386,15 @@
         <v>129</v>
       </c>
       <c r="F70">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="G70">
-        <v>14504</v>
+        <v>32663</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -2409,15 +2409,15 @@
         <v>128</v>
       </c>
       <c r="F71">
-        <v>3911</v>
+        <v>9257</v>
       </c>
       <c r="G71">
-        <v>87958</v>
+        <v>208189</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
@@ -2429,18 +2429,18 @@
         <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>9469</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>496838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
@@ -2455,15 +2455,15 @@
         <v>128</v>
       </c>
       <c r="F73">
-        <v>275</v>
+        <v>996</v>
       </c>
       <c r="G73">
-        <v>9275</v>
+        <v>37330</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -2478,15 +2478,15 @@
         <v>128</v>
       </c>
       <c r="F74">
-        <v>393</v>
+        <v>728</v>
       </c>
       <c r="G74">
-        <v>14729</v>
+        <v>24555</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
@@ -2498,18 +2498,18 @@
         <v>101</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>2058</v>
+        <v>2031</v>
       </c>
       <c r="G75">
-        <v>100286</v>
+        <v>182708</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -2521,18 +2521,18 @@
         <v>102</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F76">
-        <v>905</v>
+        <v>21014</v>
       </c>
       <c r="G76">
-        <v>81413</v>
+        <v>1102604</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
         <v>27</v>
@@ -2544,13 +2544,13 @@
         <v>103</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>4146</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>202034</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NoStock.xlsx
+++ b/Data/NoStock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,388 +37,253 @@
     <t>Estimated Sales</t>
   </si>
   <si>
-    <t>Cortider</t>
-  </si>
-  <si>
-    <t>Esoral</t>
-  </si>
-  <si>
-    <t>ETRIAM</t>
-  </si>
-  <si>
-    <t>Facid</t>
-  </si>
-  <si>
-    <t>Flucoder</t>
-  </si>
-  <si>
-    <t>Hairgrow</t>
-  </si>
-  <si>
-    <t>Kezona</t>
-  </si>
-  <si>
-    <t>Licnil</t>
-  </si>
-  <si>
-    <t>Losectil</t>
-  </si>
-  <si>
-    <t>Lulizol</t>
-  </si>
-  <si>
-    <t>Mupiron</t>
-  </si>
-  <si>
-    <t>Mycofin</t>
-  </si>
-  <si>
-    <t>Nospot</t>
-  </si>
-  <si>
-    <t>Orogurd</t>
-  </si>
-  <si>
-    <t>Panoral</t>
-  </si>
-  <si>
-    <t>Perosa</t>
-  </si>
-  <si>
-    <t>Rabifast</t>
-  </si>
-  <si>
-    <t>Softi</t>
-  </si>
-  <si>
-    <t>Sorex</t>
-  </si>
-  <si>
-    <t>Topibet</t>
-  </si>
-  <si>
-    <t>Topiclo</t>
-  </si>
-  <si>
-    <t>Cortider 10gm Cream</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
-    <t>Esoral Mups 40 Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 100's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Capsule - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet 112's</t>
-  </si>
-  <si>
-    <t>Esoral MUPS 20mg Tab 50s</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Etriam 10gm Cream</t>
-  </si>
-  <si>
-    <t>Facid 10gm BT Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Ointment</t>
-  </si>
-  <si>
-    <t>Facid 250mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>Facid HC Cream</t>
-  </si>
-  <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucoder 200mg Capsule - 10's</t>
-  </si>
-  <si>
-    <t>Flucoder 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Flucoder 50mg Capsule</t>
-  </si>
-  <si>
-    <t>Hairgrow 2% Topical Solution 60ml</t>
-  </si>
-  <si>
-    <t>Hairgrow 5% Topical Solution 60ml</t>
-  </si>
-  <si>
-    <t>Kezona 200mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Licnil 117gm Lotion</t>
-  </si>
-  <si>
-    <t>Licnil 60gm Lotion</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil Mups 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
-    <t>Losectil MUPS 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil V 40mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule (100's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Lulizol 20gm Cream</t>
-  </si>
-  <si>
-    <t>Lulizol 10gm Cream</t>
-  </si>
-  <si>
-    <t>Mupiron 20gm Ointment</t>
-  </si>
-  <si>
-    <t>Mupiron 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Mycofin 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Mycofin 5gm Cream</t>
-  </si>
-  <si>
-    <t>Nospot 30gm Cream</t>
-  </si>
-  <si>
-    <t>Orogurd 15gm Oral Gel</t>
-  </si>
-  <si>
-    <t>Panoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Panoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Perosa 30gm Cream</t>
-  </si>
-  <si>
-    <t>Rabifast 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Rabifast 20 mg Tablet</t>
-  </si>
-  <si>
-    <t>Softi Ointment 15gm</t>
-  </si>
-  <si>
-    <t>Softi Ointment 50gm</t>
-  </si>
-  <si>
-    <t>Sorex 5gm Oral Paste</t>
-  </si>
-  <si>
-    <t>Topibet CL 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo S 6% 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
-    <t>Topiclo S Ointment 1's 20g</t>
-  </si>
-  <si>
-    <t>Topiclo S 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo NN 15gm Ointment</t>
-  </si>
-  <si>
-    <t>10 gm</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>Dietil</t>
+  </si>
+  <si>
+    <t>Emazid</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Glunor</t>
+  </si>
+  <si>
+    <t>Irbes</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Noficon</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Vigamet</t>
+  </si>
+  <si>
+    <t>Vigatin</t>
+  </si>
+  <si>
+    <t>Virenta</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Creston 20mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Creston 5mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Creston 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 3mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Dialon 2mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 1mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Dietil 120mg Capsule</t>
+  </si>
+  <si>
+    <t>Emazid 25mg FC Tablet 10's</t>
+  </si>
+  <si>
+    <t>Emazid M FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Emazid 10mg FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Glikazid 30 MR Tablet 30's</t>
+  </si>
+  <si>
+    <t>Glikazid 60mg MR Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glunor XR Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 850mg Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 150mg Tablet</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/850</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/1000</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Noficon 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/1000 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/500 Tablet 20's</t>
+  </si>
+  <si>
+    <t>Vigamet 50/500 Tablet 20'S</t>
+  </si>
+  <si>
+    <t>Vigamet 50/850 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Vigatin 50mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Virenta 0.5mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>50 's</t>
+  </si>
+  <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
+    <t>18's</t>
   </si>
   <si>
     <t>50's</t>
   </si>
   <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>30's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>42's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>100's</t>
-  </si>
-  <si>
-    <t>112's</t>
-  </si>
-  <si>
-    <t>60's</t>
-  </si>
-  <si>
-    <t>15gm</t>
-  </si>
-  <si>
-    <t>10's</t>
-  </si>
-  <si>
-    <t>10 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t>120's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>100 's</t>
-  </si>
-  <si>
-    <t>500's</t>
-  </si>
-  <si>
-    <t>10gm</t>
-  </si>
-  <si>
-    <t>5gm</t>
+    <t>20 's</t>
   </si>
   <si>
     <t>40 's</t>
-  </si>
-  <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>30 gm</t>
-  </si>
-  <si>
-    <t>70's</t>
-  </si>
-  <si>
-    <t>50gm</t>
   </si>
 </sst>
 </file>
@@ -776,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,7 +672,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -816,33 +681,33 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>30464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -853,7 +718,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -862,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -876,7 +741,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -885,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -899,19 +764,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -922,19 +787,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -945,19 +810,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -968,19 +833,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -991,180 +856,180 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>5162</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1625204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>4221</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>759400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F12">
-        <v>51100</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1955086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>21275</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>11163843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>13082</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2942010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F15">
-        <v>22459</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>9428063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>40322</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>15113492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1175,19 +1040,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1198,19 +1063,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1221,19 +1086,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1244,249 +1109,249 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F21">
-        <v>36775</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1102882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F22">
-        <v>10467</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1333914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F23">
-        <v>8243</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>556155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F24">
-        <v>1786</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>120501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F25">
-        <v>4232</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>2062084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F26">
-        <v>10164</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>952366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F27">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>114289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F28">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>48726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F29">
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>76069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F30">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>367598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1497,111 +1362,111 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>35982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F33">
-        <v>1533</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>310279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F34">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>46753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F35">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>115380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1612,19 +1477,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1635,19 +1500,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1658,19 +1523,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1681,19 +1546,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1704,19 +1569,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1727,157 +1592,157 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F42">
-        <v>3661</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>823322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F43">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>139610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F44">
-        <v>166775</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>75010391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F45">
-        <v>4330</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1136062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F46">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>290734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F47">
-        <v>18807</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>719555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1888,65 +1753,65 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F49">
-        <v>20492</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>4608445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F50">
-        <v>7170</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>2687387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1957,600 +1822,25 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
         <v>78</v>
       </c>
-      <c r="E52" t="s">
-        <v>127</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53">
-        <v>52</v>
-      </c>
-      <c r="D53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53">
-        <v>13138</v>
-      </c>
-      <c r="G53">
-        <v>1181894</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>96</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54">
-        <v>7232</v>
-      </c>
-      <c r="G54">
-        <v>2927513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>99</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55">
-        <v>54</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55">
-        <v>14624</v>
-      </c>
-      <c r="G55">
-        <v>1973216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>99</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56">
-        <v>47610</v>
-      </c>
-      <c r="G56">
-        <v>3568845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57">
-        <v>56</v>
-      </c>
-      <c r="D57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57">
-        <v>225</v>
-      </c>
-      <c r="G57">
-        <v>37107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>112</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58">
-        <v>3078</v>
-      </c>
-      <c r="G58">
-        <v>323036</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>113</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59">
-        <v>8371</v>
-      </c>
-      <c r="G59">
-        <v>2510044</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60">
-        <v>59</v>
-      </c>
-      <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60">
-        <v>7345</v>
-      </c>
-      <c r="G60">
-        <v>275290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>121</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61">
-        <v>2852</v>
-      </c>
-      <c r="G61">
-        <v>427600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62">
-        <v>61</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62">
-        <v>6269</v>
-      </c>
-      <c r="G62">
-        <v>281979</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>133</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63">
-        <v>824</v>
-      </c>
-      <c r="G63">
-        <v>123534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64">
-        <v>152</v>
-      </c>
-      <c r="G64">
-        <v>31904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>134</v>
-      </c>
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65">
-        <v>64</v>
-      </c>
-      <c r="D65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65">
-        <v>4425</v>
-      </c>
-      <c r="G65">
-        <v>165849</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>143</v>
-      </c>
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67">
-        <v>7445</v>
-      </c>
-      <c r="G67">
-        <v>1953344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>165</v>
-      </c>
-      <c r="B68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>165</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69">
-        <v>1948</v>
-      </c>
-      <c r="G69">
-        <v>131431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70">
-        <v>69</v>
-      </c>
-      <c r="D70" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70">
-        <v>581</v>
-      </c>
-      <c r="G70">
-        <v>32663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>186</v>
-      </c>
-      <c r="B71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71">
-        <v>70</v>
-      </c>
-      <c r="D71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71">
-        <v>9257</v>
-      </c>
-      <c r="G71">
-        <v>208189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <v>187</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
-        <v>187</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F73">
-        <v>996</v>
-      </c>
-      <c r="G73">
-        <v>37330</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <v>187</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74">
-        <v>73</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74">
-        <v>728</v>
-      </c>
-      <c r="G74">
-        <v>24555</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
-        <v>187</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75" t="s">
-        <v>111</v>
-      </c>
-      <c r="F75">
-        <v>2031</v>
-      </c>
-      <c r="G75">
-        <v>182708</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
-        <v>187</v>
-      </c>
-      <c r="B76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76">
-        <v>75</v>
-      </c>
-      <c r="D76" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76">
-        <v>21014</v>
-      </c>
-      <c r="G76">
-        <v>1102604</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77">
-        <v>187</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77">
-        <v>76</v>
-      </c>
-      <c r="D77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" t="s">
-        <v>111</v>
-      </c>
-      <c r="F77">
-        <v>4146</v>
-      </c>
-      <c r="G77">
-        <v>202034</v>
       </c>
     </row>
   </sheetData>
